--- a/gorsel_ozellikler.xlsx
+++ b/gorsel_ozellikler.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -915,6 +915,1798 @@
         <v>43.11950777242224</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>skin_cancer_110.jpg</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64523</v>
+      </c>
+      <c r="C17" t="n">
+        <v>91.61534646560142</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>209</v>
+      </c>
+      <c r="F17" t="n">
+        <v>114.7868666986966</v>
+      </c>
+      <c r="G17" t="n">
+        <v>92.27827286393999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>43.11950777242224</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>skin_cancer_110.jpg</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>64523</v>
+      </c>
+      <c r="C18" t="n">
+        <v>91.61534646560142</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>209</v>
+      </c>
+      <c r="F18" t="n">
+        <v>114.7868666986966</v>
+      </c>
+      <c r="G18" t="n">
+        <v>92.27827286393999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>43.11950777242224</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_21.jpg</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>196319</v>
+      </c>
+      <c r="C19" t="n">
+        <v>152.7107870353863</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="n">
+        <v>255</v>
+      </c>
+      <c r="F19" t="n">
+        <v>197.8333477656263</v>
+      </c>
+      <c r="G19" t="n">
+        <v>141.9180415548164</v>
+      </c>
+      <c r="H19" t="n">
+        <v>70.95187933923869</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_21.jpg</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>197937</v>
+      </c>
+      <c r="C20" t="n">
+        <v>153.2803972981302</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>255</v>
+      </c>
+      <c r="F20" t="n">
+        <v>196.9625183770594</v>
+      </c>
+      <c r="G20" t="n">
+        <v>142.895204029565</v>
+      </c>
+      <c r="H20" t="n">
+        <v>70.8100759332515</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_13.jpg</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>35373</v>
+      </c>
+      <c r="C21" t="n">
+        <v>65.92856133208944</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>152</v>
+      </c>
+      <c r="F21" t="n">
+        <v>69.59797020326238</v>
+      </c>
+      <c r="G21" t="n">
+        <v>89.05654029909817</v>
+      </c>
+      <c r="H21" t="n">
+        <v>34.36745540383909</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_19.jpg</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>193262</v>
+      </c>
+      <c r="C22" t="n">
+        <v>120.2287516428475</v>
+      </c>
+      <c r="D22" t="n">
+        <v>49</v>
+      </c>
+      <c r="E22" t="n">
+        <v>227</v>
+      </c>
+      <c r="F22" t="n">
+        <v>127.2099791992218</v>
+      </c>
+      <c r="G22" t="n">
+        <v>120.0417878320622</v>
+      </c>
+      <c r="H22" t="n">
+        <v>109.3995612174147</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_30.jpg</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>121375</v>
+      </c>
+      <c r="C23" t="n">
+        <v>119.7996622039135</v>
+      </c>
+      <c r="D23" t="n">
+        <v>32</v>
+      </c>
+      <c r="E23" t="n">
+        <v>175</v>
+      </c>
+      <c r="F23" t="n">
+        <v>152.6558187435633</v>
+      </c>
+      <c r="G23" t="n">
+        <v>112.1352337796087</v>
+      </c>
+      <c r="H23" t="n">
+        <v>78.71044284243048</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_32.jpg</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>121375</v>
+      </c>
+      <c r="C24" t="n">
+        <v>119.7996622039135</v>
+      </c>
+      <c r="D24" t="n">
+        <v>32</v>
+      </c>
+      <c r="E24" t="n">
+        <v>175</v>
+      </c>
+      <c r="F24" t="n">
+        <v>152.6558187435633</v>
+      </c>
+      <c r="G24" t="n">
+        <v>112.1352337796087</v>
+      </c>
+      <c r="H24" t="n">
+        <v>78.71044284243048</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_32.jpg</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>116631</v>
+      </c>
+      <c r="C25" t="n">
+        <v>118.5053459200384</v>
+      </c>
+      <c r="D25" t="n">
+        <v>32</v>
+      </c>
+      <c r="E25" t="n">
+        <v>173</v>
+      </c>
+      <c r="F25" t="n">
+        <v>150.8395709545489</v>
+      </c>
+      <c r="G25" t="n">
+        <v>113.0089598820211</v>
+      </c>
+      <c r="H25" t="n">
+        <v>76.114755082268</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_32.jpg</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>116631</v>
+      </c>
+      <c r="C26" t="n">
+        <v>118.5053459200384</v>
+      </c>
+      <c r="D26" t="n">
+        <v>32</v>
+      </c>
+      <c r="E26" t="n">
+        <v>173</v>
+      </c>
+      <c r="F26" t="n">
+        <v>150.8395709545489</v>
+      </c>
+      <c r="G26" t="n">
+        <v>113.0089598820211</v>
+      </c>
+      <c r="H26" t="n">
+        <v>76.114755082268</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_32.jpg</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>117970</v>
+      </c>
+      <c r="C27" t="n">
+        <v>118.8561159616852</v>
+      </c>
+      <c r="D27" t="n">
+        <v>32</v>
+      </c>
+      <c r="E27" t="n">
+        <v>173</v>
+      </c>
+      <c r="F27" t="n">
+        <v>150.2054674917352</v>
+      </c>
+      <c r="G27" t="n">
+        <v>113.1280071204543</v>
+      </c>
+      <c r="H27" t="n">
+        <v>76.76213444095956</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_32.jpg</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>111462</v>
+      </c>
+      <c r="C28" t="n">
+        <v>117.2017817731604</v>
+      </c>
+      <c r="D28" t="n">
+        <v>32</v>
+      </c>
+      <c r="E28" t="n">
+        <v>163</v>
+      </c>
+      <c r="F28" t="n">
+        <v>157.0583786402541</v>
+      </c>
+      <c r="G28" t="n">
+        <v>108.7027237982451</v>
+      </c>
+      <c r="H28" t="n">
+        <v>76.86555059123289</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>116781</v>
+      </c>
+      <c r="C29" t="n">
+        <v>129.4473672943373</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>209</v>
+      </c>
+      <c r="F29" t="n">
+        <v>122.5416206403439</v>
+      </c>
+      <c r="G29" t="n">
+        <v>131.0909051986197</v>
+      </c>
+      <c r="H29" t="n">
+        <v>86.43407746123086</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>116781</v>
+      </c>
+      <c r="C30" t="n">
+        <v>129.4473672943373</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>209</v>
+      </c>
+      <c r="F30" t="n">
+        <v>122.5416206403439</v>
+      </c>
+      <c r="G30" t="n">
+        <v>131.0909051986197</v>
+      </c>
+      <c r="H30" t="n">
+        <v>86.43407746123086</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>116781</v>
+      </c>
+      <c r="C31" t="n">
+        <v>129.4473672943373</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>209</v>
+      </c>
+      <c r="F31" t="n">
+        <v>122.5416206403439</v>
+      </c>
+      <c r="G31" t="n">
+        <v>131.0909051986197</v>
+      </c>
+      <c r="H31" t="n">
+        <v>86.43407746123086</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>116781</v>
+      </c>
+      <c r="C32" t="n">
+        <v>129.4473672943373</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>209</v>
+      </c>
+      <c r="F32" t="n">
+        <v>122.5416206403439</v>
+      </c>
+      <c r="G32" t="n">
+        <v>131.0909051986197</v>
+      </c>
+      <c r="H32" t="n">
+        <v>86.43407746123086</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>29832</v>
+      </c>
+      <c r="C33" t="n">
+        <v>26.39202869401985</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>197</v>
+      </c>
+      <c r="F33" t="n">
+        <v>24.83437248592116</v>
+      </c>
+      <c r="G33" t="n">
+        <v>57.5086484312148</v>
+      </c>
+      <c r="H33" t="n">
+        <v>19.94442209707696</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>29832</v>
+      </c>
+      <c r="C34" t="n">
+        <v>26.39202869401985</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>197</v>
+      </c>
+      <c r="F34" t="n">
+        <v>24.83437248592116</v>
+      </c>
+      <c r="G34" t="n">
+        <v>57.5086484312148</v>
+      </c>
+      <c r="H34" t="n">
+        <v>19.94442209707696</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>174637</v>
+      </c>
+      <c r="C35" t="n">
+        <v>179.0055314738572</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>218</v>
+      </c>
+      <c r="F35" t="n">
+        <v>213.0983812136031</v>
+      </c>
+      <c r="G35" t="n">
+        <v>168.7787295933851</v>
+      </c>
+      <c r="H35" t="n">
+        <v>139.220468743737</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>201300</v>
+      </c>
+      <c r="C36" t="n">
+        <v>157.5947540983607</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>218</v>
+      </c>
+      <c r="F36" t="n">
+        <v>191.2322652757079</v>
+      </c>
+      <c r="G36" t="n">
+        <v>148.1371982116245</v>
+      </c>
+      <c r="H36" t="n">
+        <v>125.3274267262792</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>43747</v>
+      </c>
+      <c r="C37" t="n">
+        <v>201.959425789197</v>
+      </c>
+      <c r="D37" t="n">
+        <v>143</v>
+      </c>
+      <c r="E37" t="n">
+        <v>218</v>
+      </c>
+      <c r="F37" t="n">
+        <v>137.8920840286191</v>
+      </c>
+      <c r="G37" t="n">
+        <v>196.0289162685442</v>
+      </c>
+      <c r="H37" t="n">
+        <v>114.2706242713786</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>199897</v>
+      </c>
+      <c r="C38" t="n">
+        <v>157.2575976627963</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>218</v>
+      </c>
+      <c r="F38" t="n">
+        <v>180.9450416964737</v>
+      </c>
+      <c r="G38" t="n">
+        <v>150.5832453713663</v>
+      </c>
+      <c r="H38" t="n">
+        <v>118.7351636092588</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>43747</v>
+      </c>
+      <c r="C39" t="n">
+        <v>201.959425789197</v>
+      </c>
+      <c r="D39" t="n">
+        <v>143</v>
+      </c>
+      <c r="E39" t="n">
+        <v>218</v>
+      </c>
+      <c r="F39" t="n">
+        <v>137.8920840286191</v>
+      </c>
+      <c r="G39" t="n">
+        <v>196.0289162685442</v>
+      </c>
+      <c r="H39" t="n">
+        <v>114.2706242713786</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7369</v>
+      </c>
+      <c r="C40" t="n">
+        <v>208.2199755733478</v>
+      </c>
+      <c r="D40" t="n">
+        <v>183</v>
+      </c>
+      <c r="E40" t="n">
+        <v>218</v>
+      </c>
+      <c r="F40" t="n">
+        <v>83.14506717329353</v>
+      </c>
+      <c r="G40" t="n">
+        <v>172.91247116298</v>
+      </c>
+      <c r="H40" t="n">
+        <v>117.3912335459357</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>201297</v>
+      </c>
+      <c r="C41" t="n">
+        <v>157.594966641331</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>218</v>
+      </c>
+      <c r="F41" t="n">
+        <v>186.9044446762744</v>
+      </c>
+      <c r="G41" t="n">
+        <v>152.4935890748496</v>
+      </c>
+      <c r="H41" t="n">
+        <v>125.5190936775014</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>201297</v>
+      </c>
+      <c r="C42" t="n">
+        <v>157.594966641331</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>218</v>
+      </c>
+      <c r="F42" t="n">
+        <v>186.9044446762744</v>
+      </c>
+      <c r="G42" t="n">
+        <v>152.4935890748496</v>
+      </c>
+      <c r="H42" t="n">
+        <v>125.5190936775014</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>41150</v>
+      </c>
+      <c r="C43" t="n">
+        <v>152.7686512758202</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>217</v>
+      </c>
+      <c r="F43" t="n">
+        <v>99.73599027946537</v>
+      </c>
+      <c r="G43" t="n">
+        <v>161.7038639125152</v>
+      </c>
+      <c r="H43" t="n">
+        <v>107.3109356014581</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6684</v>
+      </c>
+      <c r="C44" t="n">
+        <v>64.09305804907241</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>197</v>
+      </c>
+      <c r="F44" t="n">
+        <v>35.12402752842609</v>
+      </c>
+      <c r="G44" t="n">
+        <v>170.9551166965889</v>
+      </c>
+      <c r="H44" t="n">
+        <v>48.42788749251945</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>92855</v>
+      </c>
+      <c r="C45" t="n">
+        <v>167.3886381993431</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>218</v>
+      </c>
+      <c r="F45" t="n">
+        <v>96.34318022723602</v>
+      </c>
+      <c r="G45" t="n">
+        <v>159.1048301114641</v>
+      </c>
+      <c r="H45" t="n">
+        <v>118.4697000700016</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9821</v>
+      </c>
+      <c r="C46" t="n">
+        <v>67.8703797983912</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>197</v>
+      </c>
+      <c r="F46" t="n">
+        <v>41.17075654210365</v>
+      </c>
+      <c r="G46" t="n">
+        <v>185.1459118216067</v>
+      </c>
+      <c r="H46" t="n">
+        <v>40.46777313919153</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>26120</v>
+      </c>
+      <c r="C47" t="n">
+        <v>132.9527947932619</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>217</v>
+      </c>
+      <c r="F47" t="n">
+        <v>63.72400459418071</v>
+      </c>
+      <c r="G47" t="n">
+        <v>172.037404287902</v>
+      </c>
+      <c r="H47" t="n">
+        <v>82.01385911179173</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>37411</v>
+      </c>
+      <c r="C48" t="n">
+        <v>147.5941835289086</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>217</v>
+      </c>
+      <c r="F48" t="n">
+        <v>74.11440485418727</v>
+      </c>
+      <c r="G48" t="n">
+        <v>166.8758921172917</v>
+      </c>
+      <c r="H48" t="n">
+        <v>95.93964342038439</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>37411</v>
+      </c>
+      <c r="C49" t="n">
+        <v>147.5941835289086</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>217</v>
+      </c>
+      <c r="F49" t="n">
+        <v>74.11440485418727</v>
+      </c>
+      <c r="G49" t="n">
+        <v>166.8758921172917</v>
+      </c>
+      <c r="H49" t="n">
+        <v>95.93964342038439</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>37411</v>
+      </c>
+      <c r="C50" t="n">
+        <v>147.5941835289086</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>217</v>
+      </c>
+      <c r="F50" t="n">
+        <v>74.11440485418727</v>
+      </c>
+      <c r="G50" t="n">
+        <v>166.8758921172917</v>
+      </c>
+      <c r="H50" t="n">
+        <v>95.93964342038439</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>37411</v>
+      </c>
+      <c r="C51" t="n">
+        <v>147.5941835289086</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>217</v>
+      </c>
+      <c r="F51" t="n">
+        <v>74.11440485418727</v>
+      </c>
+      <c r="G51" t="n">
+        <v>166.8758921172917</v>
+      </c>
+      <c r="H51" t="n">
+        <v>95.93964342038439</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>37411</v>
+      </c>
+      <c r="C52" t="n">
+        <v>147.5941835289086</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>217</v>
+      </c>
+      <c r="F52" t="n">
+        <v>74.11440485418727</v>
+      </c>
+      <c r="G52" t="n">
+        <v>166.8758921172917</v>
+      </c>
+      <c r="H52" t="n">
+        <v>95.93964342038439</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>37411</v>
+      </c>
+      <c r="C53" t="n">
+        <v>147.5941835289086</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>217</v>
+      </c>
+      <c r="F53" t="n">
+        <v>74.11440485418727</v>
+      </c>
+      <c r="G53" t="n">
+        <v>166.8758921172917</v>
+      </c>
+      <c r="H53" t="n">
+        <v>95.93964342038439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>37411</v>
+      </c>
+      <c r="C54" t="n">
+        <v>147.5941835289086</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>217</v>
+      </c>
+      <c r="F54" t="n">
+        <v>74.11440485418727</v>
+      </c>
+      <c r="G54" t="n">
+        <v>166.8758921172917</v>
+      </c>
+      <c r="H54" t="n">
+        <v>95.93964342038439</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>37411</v>
+      </c>
+      <c r="C55" t="n">
+        <v>147.5941835289086</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>217</v>
+      </c>
+      <c r="F55" t="n">
+        <v>74.11440485418727</v>
+      </c>
+      <c r="G55" t="n">
+        <v>166.8758921172917</v>
+      </c>
+      <c r="H55" t="n">
+        <v>95.93964342038439</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>skin_cancer_110.jpg</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>154937</v>
+      </c>
+      <c r="C56" t="n">
+        <v>141.5205793322447</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>233</v>
+      </c>
+      <c r="F56" t="n">
+        <v>62.75880519178763</v>
+      </c>
+      <c r="G56" t="n">
+        <v>148.3402931514099</v>
+      </c>
+      <c r="H56" t="n">
+        <v>114.4459877240427</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>skin_cancer_110.jpg</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>154937</v>
+      </c>
+      <c r="C57" t="n">
+        <v>141.5205793322447</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>233</v>
+      </c>
+      <c r="F57" t="n">
+        <v>62.75880519178763</v>
+      </c>
+      <c r="G57" t="n">
+        <v>148.3402931514099</v>
+      </c>
+      <c r="H57" t="n">
+        <v>114.4459877240427</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>skin_cancer_110.jpg</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>11290</v>
+      </c>
+      <c r="C58" t="n">
+        <v>96.13817537643934</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>209</v>
+      </c>
+      <c r="F58" t="n">
+        <v>49.05713020372011</v>
+      </c>
+      <c r="G58" t="n">
+        <v>135.3452612931798</v>
+      </c>
+      <c r="H58" t="n">
+        <v>82.53117803365811</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>skin_cancer_110.jpg</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>107608</v>
+      </c>
+      <c r="C59" t="n">
+        <v>117.197113597502</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>209</v>
+      </c>
+      <c r="F59" t="n">
+        <v>138.9787562263029</v>
+      </c>
+      <c r="G59" t="n">
+        <v>112.5107798676678</v>
+      </c>
+      <c r="H59" t="n">
+        <v>68.86546539290759</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>103191</v>
+      </c>
+      <c r="C60" t="n">
+        <v>140.0130728455001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>40</v>
+      </c>
+      <c r="E60" t="n">
+        <v>192</v>
+      </c>
+      <c r="F60" t="n">
+        <v>162.1948619550155</v>
+      </c>
+      <c r="G60" t="n">
+        <v>129.3822232559041</v>
+      </c>
+      <c r="H60" t="n">
+        <v>108.8715294938512</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>47476</v>
+      </c>
+      <c r="C61" t="n">
+        <v>102.0673182239447</v>
+      </c>
+      <c r="D61" t="n">
+        <v>40</v>
+      </c>
+      <c r="E61" t="n">
+        <v>176</v>
+      </c>
+      <c r="F61" t="n">
+        <v>141.0571657258404</v>
+      </c>
+      <c r="G61" t="n">
+        <v>83.89887522116437</v>
+      </c>
+      <c r="H61" t="n">
+        <v>79.99511332041452</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>103191</v>
+      </c>
+      <c r="C62" t="n">
+        <v>140.0130728455001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>40</v>
+      </c>
+      <c r="E62" t="n">
+        <v>192</v>
+      </c>
+      <c r="F62" t="n">
+        <v>162.1948619550155</v>
+      </c>
+      <c r="G62" t="n">
+        <v>129.3822232559041</v>
+      </c>
+      <c r="H62" t="n">
+        <v>108.8715294938512</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>103191</v>
+      </c>
+      <c r="C63" t="n">
+        <v>140.0130728455001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>40</v>
+      </c>
+      <c r="E63" t="n">
+        <v>192</v>
+      </c>
+      <c r="F63" t="n">
+        <v>162.1948619550155</v>
+      </c>
+      <c r="G63" t="n">
+        <v>129.3822232559041</v>
+      </c>
+      <c r="H63" t="n">
+        <v>108.8715294938512</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>47476</v>
+      </c>
+      <c r="C64" t="n">
+        <v>102.0673182239447</v>
+      </c>
+      <c r="D64" t="n">
+        <v>40</v>
+      </c>
+      <c r="E64" t="n">
+        <v>176</v>
+      </c>
+      <c r="F64" t="n">
+        <v>141.0571657258404</v>
+      </c>
+      <c r="G64" t="n">
+        <v>83.89887522116437</v>
+      </c>
+      <c r="H64" t="n">
+        <v>79.99511332041452</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>47803</v>
+      </c>
+      <c r="C65" t="n">
+        <v>102.4207058134427</v>
+      </c>
+      <c r="D65" t="n">
+        <v>40</v>
+      </c>
+      <c r="E65" t="n">
+        <v>176</v>
+      </c>
+      <c r="F65" t="n">
+        <v>139.0545572453612</v>
+      </c>
+      <c r="G65" t="n">
+        <v>86.1660146852708</v>
+      </c>
+      <c r="H65" t="n">
+        <v>78.1048469761312</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>47476</v>
+      </c>
+      <c r="C66" t="n">
+        <v>102.0673182239447</v>
+      </c>
+      <c r="D66" t="n">
+        <v>40</v>
+      </c>
+      <c r="E66" t="n">
+        <v>176</v>
+      </c>
+      <c r="F66" t="n">
+        <v>141.0571657258404</v>
+      </c>
+      <c r="G66" t="n">
+        <v>83.89887522116437</v>
+      </c>
+      <c r="H66" t="n">
+        <v>79.99511332041452</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>47330</v>
+      </c>
+      <c r="C67" t="n">
+        <v>101.9193957320938</v>
+      </c>
+      <c r="D67" t="n">
+        <v>40</v>
+      </c>
+      <c r="E67" t="n">
+        <v>176</v>
+      </c>
+      <c r="F67" t="n">
+        <v>140.9638706951194</v>
+      </c>
+      <c r="G67" t="n">
+        <v>83.85446862455102</v>
+      </c>
+      <c r="H67" t="n">
+        <v>79.81935347559687</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>103191</v>
+      </c>
+      <c r="C68" t="n">
+        <v>140.0130728455001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>40</v>
+      </c>
+      <c r="E68" t="n">
+        <v>192</v>
+      </c>
+      <c r="F68" t="n">
+        <v>162.1948619550155</v>
+      </c>
+      <c r="G68" t="n">
+        <v>129.3822232559041</v>
+      </c>
+      <c r="H68" t="n">
+        <v>108.8715294938512</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>104312</v>
+      </c>
+      <c r="C69" t="n">
+        <v>140.4166730577498</v>
+      </c>
+      <c r="D69" t="n">
+        <v>40</v>
+      </c>
+      <c r="E69" t="n">
+        <v>192</v>
+      </c>
+      <c r="F69" t="n">
+        <v>160.3382640539919</v>
+      </c>
+      <c r="G69" t="n">
+        <v>130.5930957128614</v>
+      </c>
+      <c r="H69" t="n">
+        <v>107.7518406319503</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>114034</v>
+      </c>
+      <c r="C70" t="n">
+        <v>144.1239191819983</v>
+      </c>
+      <c r="D70" t="n">
+        <v>40</v>
+      </c>
+      <c r="E70" t="n">
+        <v>198</v>
+      </c>
+      <c r="F70" t="n">
+        <v>148.1312327902205</v>
+      </c>
+      <c r="G70" t="n">
+        <v>136.2827051581107</v>
+      </c>
+      <c r="H70" t="n">
+        <v>104.5606661171229</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>106875</v>
+      </c>
+      <c r="C71" t="n">
+        <v>141.4201730994152</v>
+      </c>
+      <c r="D71" t="n">
+        <v>40</v>
+      </c>
+      <c r="E71" t="n">
+        <v>192</v>
+      </c>
+      <c r="F71" t="n">
+        <v>156.5277192982456</v>
+      </c>
+      <c r="G71" t="n">
+        <v>132.6521169590643</v>
+      </c>
+      <c r="H71" t="n">
+        <v>106.1734362573099</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>110971</v>
+      </c>
+      <c r="C72" t="n">
+        <v>142.9988195114039</v>
+      </c>
+      <c r="D72" t="n">
+        <v>40</v>
+      </c>
+      <c r="E72" t="n">
+        <v>198</v>
+      </c>
+      <c r="F72" t="n">
+        <v>151.9616476376711</v>
+      </c>
+      <c r="G72" t="n">
+        <v>135.0969802921484</v>
+      </c>
+      <c r="H72" t="n">
+        <v>105.0595831343324</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>106186</v>
+      </c>
+      <c r="C73" t="n">
+        <v>141.1508202587912</v>
+      </c>
+      <c r="D73" t="n">
+        <v>40</v>
+      </c>
+      <c r="E73" t="n">
+        <v>192</v>
+      </c>
+      <c r="F73" t="n">
+        <v>157.7705158872168</v>
+      </c>
+      <c r="G73" t="n">
+        <v>132.6552182020229</v>
+      </c>
+      <c r="H73" t="n">
+        <v>106.1288305426327</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>106186</v>
+      </c>
+      <c r="C74" t="n">
+        <v>141.1508202587912</v>
+      </c>
+      <c r="D74" t="n">
+        <v>40</v>
+      </c>
+      <c r="E74" t="n">
+        <v>192</v>
+      </c>
+      <c r="F74" t="n">
+        <v>157.7705158872168</v>
+      </c>
+      <c r="G74" t="n">
+        <v>132.6552182020229</v>
+      </c>
+      <c r="H74" t="n">
+        <v>106.1288305426327</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>10669</v>
+      </c>
+      <c r="C75" t="n">
+        <v>93.91629955947135</v>
+      </c>
+      <c r="D75" t="n">
+        <v>41</v>
+      </c>
+      <c r="E75" t="n">
+        <v>183</v>
+      </c>
+      <c r="F75" t="n">
+        <v>55.42646920986034</v>
+      </c>
+      <c r="G75" t="n">
+        <v>120.5932139844409</v>
+      </c>
+      <c r="H75" t="n">
+        <v>99.36188958665291</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>skin_cancer_08.jpg</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>103191</v>
+      </c>
+      <c r="C76" t="n">
+        <v>140.0130728455001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>40</v>
+      </c>
+      <c r="E76" t="n">
+        <v>192</v>
+      </c>
+      <c r="F76" t="n">
+        <v>162.1948619550155</v>
+      </c>
+      <c r="G76" t="n">
+        <v>129.3822232559041</v>
+      </c>
+      <c r="H76" t="n">
+        <v>108.8715294938512</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>106511</v>
+      </c>
+      <c r="C77" t="n">
+        <v>124.1194806170255</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4</v>
+      </c>
+      <c r="E77" t="n">
+        <v>203</v>
+      </c>
+      <c r="F77" t="n">
+        <v>131.3741679263175</v>
+      </c>
+      <c r="G77" t="n">
+        <v>124.3792096590962</v>
+      </c>
+      <c r="H77" t="n">
+        <v>88.58958229666419</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>116781</v>
+      </c>
+      <c r="C78" t="n">
+        <v>129.4473672943373</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E78" t="n">
+        <v>209</v>
+      </c>
+      <c r="F78" t="n">
+        <v>122.5416206403439</v>
+      </c>
+      <c r="G78" t="n">
+        <v>131.0909051986197</v>
+      </c>
+      <c r="H78" t="n">
+        <v>86.43407746123086</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>29832</v>
+      </c>
+      <c r="C79" t="n">
+        <v>26.39202869401985</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4</v>
+      </c>
+      <c r="E79" t="n">
+        <v>197</v>
+      </c>
+      <c r="F79" t="n">
+        <v>24.83437248592116</v>
+      </c>
+      <c r="G79" t="n">
+        <v>57.5086484312148</v>
+      </c>
+      <c r="H79" t="n">
+        <v>19.94442209707696</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_43.jpg</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>116781</v>
+      </c>
+      <c r="C80" t="n">
+        <v>129.4473672943373</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="n">
+        <v>209</v>
+      </c>
+      <c r="F80" t="n">
+        <v>122.5416206403439</v>
+      </c>
+      <c r="G80" t="n">
+        <v>131.0909051986197</v>
+      </c>
+      <c r="H80" t="n">
+        <v>86.43407746123086</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
